--- a/data/trans_camb/P3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P3_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>-2,63</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-16,59</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,82</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,87</t>
+          <t>0,47</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,51</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-8,09</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 22,88</t>
+          <t>-34,1; 32,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,4; 20,06</t>
+          <t>-33,77; 32,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-19,87; 18,62</t>
+          <t>-38,43; 30,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 11,62</t>
+          <t>-50,59; 14,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-18,63; 9,76</t>
+          <t>-17,41; 20,47</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-25,27; 8,17</t>
+          <t>-17,9; 20,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,88; 12,04</t>
+          <t>-18,12; 20,96</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-12,9; 10,07</t>
+          <t>-22,21; 20,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-19,06; 7,72</t>
+          <t>-17,79; 18,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 18,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-20,96; 18,09</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-28,02; 11,13</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>-0,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>-4,64%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-2,26%</t>
+          <t>-29,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-7,12%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-13,66%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>-1,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-5,45%</t>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,09%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-0,99%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-15,82%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,84; 48,68</t>
+          <t>-48,19; 72,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-23,51; 43,82</t>
+          <t>-47,11; 72,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-30,5; 38,44</t>
+          <t>-55,4; 66,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-26,43; 25,92</t>
+          <t>-71,79; 28,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-34,28; 21,59</t>
+          <t>-31,51; 58,46</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,36; 17,78</t>
+          <t>-32,88; 55,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 25,08</t>
+          <t>-32,83; 58,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-22,39; 21,09</t>
+          <t>-41,86; 56,93</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-34,01; 16,11</t>
+          <t>-30,44; 44,73</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-30,44; 44,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-35,02; 41,95</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-48,17; 24,52</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,72</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>5,92</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,57</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>-1,76</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-0,85</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,28</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 9,85</t>
+          <t>-13,82; 13,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 10,15</t>
+          <t>-12,34; 14,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,1; 9,81</t>
+          <t>-11,99; 15,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 10,1</t>
+          <t>-6,93; 19,32</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 8,4</t>
+          <t>-11,74; 9,75</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 8,51</t>
+          <t>-14,02; 7,24</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 6,52</t>
+          <t>-13,27; 8,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 5,9</t>
+          <t>-12,89; 8,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,22; 5,5</t>
+          <t>-8,9; 8,58</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,42; 7,72</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,09; 8,95</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,24; 10,77</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>10,92%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-1,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-5,24%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-3,62%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-3,58%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>-1,65%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,88%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,2%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-0,83%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,56%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-1,01%</t>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,27%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>4,45%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 21,47</t>
+          <t>-22,01; 29,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-17,56; 22,31</t>
+          <t>-19,56; 30,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-20,38; 21,26</t>
+          <t>-20,03; 31,57</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 23,74</t>
+          <t>-11,65; 40,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,33; 19,28</t>
+          <t>-21,44; 22,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,32; 19,8</t>
+          <t>-25,83; 16,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-11,15; 14,02</t>
+          <t>-24,27; 18,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-12,36; 12,98</t>
+          <t>-24,2; 18,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 11,56</t>
+          <t>-15,93; 18,33</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-16,91; 16,15</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-14,55; 18,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-11,56; 22,92</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>1,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,25</t>
+          <t>-2,3</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,85</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>-2,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,31</t>
+          <t>-4,17</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,65</t>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-0,23</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,43</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-1,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,34; 12,17</t>
+          <t>-13,46; 14,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 10,8</t>
+          <t>-12,74; 15,23</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,28; 11,85</t>
+          <t>-9,99; 16,92</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 9,83</t>
+          <t>-14,48; 11,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 7,71</t>
+          <t>-10,31; 11,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-11,78; 5,96</t>
+          <t>-12,49; 9,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 8,37</t>
+          <t>-14,2; 7,1</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,18; 6,5</t>
+          <t>-12,59; 9,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,4</t>
+          <t>-8,41; 9,07</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-8,36; 8,71</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-8,37; 8,09</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 6,22</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>8,86%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>-5,23%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-2,25%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-6,6%</t>
+          <t>-5,03%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>-10,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>-3,62%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-1,57%</t>
+          <t>1,37%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-0,55%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,04%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-4,18%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 29,14</t>
+          <t>-25,66; 38,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,97; 26,84</t>
+          <t>-24,9; 40,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-18,58; 29,96</t>
+          <t>-20,12; 45,9</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 29,09</t>
+          <t>-29,18; 30,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-23,71; 22,48</t>
+          <t>-22,77; 33,5</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,12; 17,7</t>
+          <t>-27,19; 28,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-12,3; 21,72</t>
+          <t>-31,93; 21,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 17,2</t>
+          <t>-27,36; 29,16</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 17,48</t>
+          <t>-18,4; 23,69</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-17,83; 23,4</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-18,61; 21,96</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-21,63; 17,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 8,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 7,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 6,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 6,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,23; 3,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 5,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 4,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 3,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-2,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-4,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-1,5%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 17,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-10,14; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-12,92; 15,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 15,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-14,1; 10,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-17,49; 7,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 13,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 9,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,23; 8,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,18</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,19</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,02</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-1,86</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-1,09</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,07; 10,04</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-8,34; 10,1</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-7,47; 11,42</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-10,63; 9,32</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-6,95; 6,37</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-8,95; 4,76</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 4,27</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 6,61</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-5,46; 5,97</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 5,29</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-6,06; 6,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 4,96</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,71%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,15%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-0,37%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>-0,05%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,16%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>-4,84%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,45%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>-0,73%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-1,14%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-16,63; 21,35</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-15,42; 22,07</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-13,89; 24,45</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-20,24; 19,9</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-14,69; 15,52</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-18,45; 11,71</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-19,56; 10,43</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-17,35; 16,09</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-10,52; 13,53</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-12,01; 11,84</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-12,03; 13,54</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-13,35; 10,95</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
